--- a/AnthT.xlsx
+++ b/AnthT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="325">
   <si>
     <t>Tree.ID</t>
   </si>
@@ -1068,8 +1068,8 @@
       <c r="B2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1094,8 +1094,8 @@
       <c r="B3" t="s">
         <v>167</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1120,8 +1120,8 @@
       <c r="B4" t="s">
         <v>168</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1146,8 +1146,8 @@
       <c r="B5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1172,8 +1172,8 @@
       <c r="B6" t="s">
         <v>170</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.0</v>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1198,8 +1198,8 @@
       <c r="B7" t="s">
         <v>171</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1224,8 +1224,8 @@
       <c r="B8" t="s">
         <v>172</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1250,8 +1250,8 @@
       <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1276,8 +1276,8 @@
       <c r="B10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1302,8 +1302,8 @@
       <c r="B11" t="s">
         <v>175</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
+      <c r="C11" t="s">
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1328,8 +1328,8 @@
       <c r="B12" t="s">
         <v>176</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1354,8 +1354,8 @@
       <c r="B13" t="s">
         <v>177</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1380,8 +1380,8 @@
       <c r="B14" t="s">
         <v>178</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1406,8 +1406,8 @@
       <c r="B15" t="s">
         <v>179</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
+      <c r="C15" t="s">
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1432,8 +1432,8 @@
       <c r="B16" t="s">
         <v>180</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
+      <c r="C16" t="s">
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1458,8 +1458,8 @@
       <c r="B17" t="s">
         <v>181</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1484,8 +1484,8 @@
       <c r="B18" t="s">
         <v>182</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
+      <c r="C18" t="s">
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1510,8 +1510,8 @@
       <c r="B19" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
+      <c r="C19" t="s">
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1536,8 +1536,8 @@
       <c r="B20" t="s">
         <v>184</v>
       </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
+      <c r="C20" t="s">
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1562,8 +1562,8 @@
       <c r="B21" t="s">
         <v>185</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
+      <c r="C21" t="s">
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1588,8 +1588,8 @@
       <c r="B22" t="s">
         <v>186</v>
       </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
+      <c r="C22" t="s">
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1614,8 +1614,8 @@
       <c r="B23" t="s">
         <v>187</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
+      <c r="C23" t="s">
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1640,8 +1640,8 @@
       <c r="B24" t="s">
         <v>188</v>
       </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
+      <c r="C24" t="s">
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1666,8 +1666,8 @@
       <c r="B25" t="s">
         <v>189</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.0</v>
+      <c r="C25" t="s">
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1692,8 +1692,8 @@
       <c r="B26" t="s">
         <v>190</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.0</v>
+      <c r="C26" t="s">
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1718,8 +1718,8 @@
       <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.0</v>
+      <c r="C27" t="s">
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -1744,8 +1744,8 @@
       <c r="B28" t="s">
         <v>192</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.0</v>
+      <c r="C28" t="s">
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -1770,8 +1770,8 @@
       <c r="B29" t="s">
         <v>193</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.0</v>
+      <c r="C29" t="s">
+        <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -1796,8 +1796,8 @@
       <c r="B30" t="s">
         <v>194</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.0</v>
+      <c r="C30" t="s">
+        <v>7</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -1822,8 +1822,8 @@
       <c r="B31" t="s">
         <v>195</v>
       </c>
-      <c r="C31" t="n">
-        <v>1.0</v>
+      <c r="C31" t="s">
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>37</v>
@@ -1848,8 +1848,8 @@
       <c r="B32" t="s">
         <v>196</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.0</v>
+      <c r="C32" t="s">
+        <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -1874,8 +1874,8 @@
       <c r="B33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.0</v>
+      <c r="C33" t="s">
+        <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
@@ -1900,8 +1900,8 @@
       <c r="B34" t="s">
         <v>198</v>
       </c>
-      <c r="C34" t="n">
-        <v>1.0</v>
+      <c r="C34" t="s">
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -1926,8 +1926,8 @@
       <c r="B35" t="s">
         <v>199</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
+      <c r="C35" t="s">
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -1952,8 +1952,8 @@
       <c r="B36" t="s">
         <v>200</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.0</v>
+      <c r="C36" t="s">
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
@@ -1978,8 +1978,8 @@
       <c r="B37" t="s">
         <v>201</v>
       </c>
-      <c r="C37" t="n">
-        <v>1.0</v>
+      <c r="C37" t="s">
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
@@ -2004,8 +2004,8 @@
       <c r="B38" t="s">
         <v>202</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.0</v>
+      <c r="C38" t="s">
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
@@ -2030,8 +2030,8 @@
       <c r="B39" t="s">
         <v>203</v>
       </c>
-      <c r="C39" t="n">
-        <v>1.0</v>
+      <c r="C39" t="s">
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
@@ -2056,8 +2056,8 @@
       <c r="B40" t="s">
         <v>204</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.0</v>
+      <c r="C40" t="s">
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
@@ -2082,8 +2082,8 @@
       <c r="B41" t="s">
         <v>205</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.0</v>
+      <c r="C41" t="s">
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>47</v>
@@ -2108,8 +2108,8 @@
       <c r="B42" t="s">
         <v>206</v>
       </c>
-      <c r="C42" t="n">
-        <v>1.0</v>
+      <c r="C42" t="s">
+        <v>7</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
@@ -2134,8 +2134,8 @@
       <c r="B43" t="s">
         <v>207</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.0</v>
+      <c r="C43" t="s">
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>49</v>
@@ -2160,8 +2160,8 @@
       <c r="B44" t="s">
         <v>208</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.0</v>
+      <c r="C44" t="s">
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
@@ -2186,8 +2186,8 @@
       <c r="B45" t="s">
         <v>209</v>
       </c>
-      <c r="C45" t="n">
-        <v>1.0</v>
+      <c r="C45" t="s">
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>51</v>
@@ -2212,8 +2212,8 @@
       <c r="B46" t="s">
         <v>210</v>
       </c>
-      <c r="C46" t="n">
-        <v>1.0</v>
+      <c r="C46" t="s">
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>52</v>
@@ -2238,8 +2238,8 @@
       <c r="B47" t="s">
         <v>211</v>
       </c>
-      <c r="C47" t="n">
-        <v>1.0</v>
+      <c r="C47" t="s">
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>53</v>
@@ -2264,8 +2264,8 @@
       <c r="B48" t="s">
         <v>212</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.0</v>
+      <c r="C48" t="s">
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>54</v>
@@ -2290,8 +2290,8 @@
       <c r="B49" t="s">
         <v>213</v>
       </c>
-      <c r="C49" t="n">
-        <v>1.0</v>
+      <c r="C49" t="s">
+        <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
@@ -2316,8 +2316,8 @@
       <c r="B50" t="s">
         <v>214</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.0</v>
+      <c r="C50" t="s">
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>56</v>
@@ -2342,8 +2342,8 @@
       <c r="B51" t="s">
         <v>215</v>
       </c>
-      <c r="C51" t="n">
-        <v>2.0</v>
+      <c r="C51" t="s">
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -2368,8 +2368,8 @@
       <c r="B52" t="s">
         <v>216</v>
       </c>
-      <c r="C52" t="n">
-        <v>2.0</v>
+      <c r="C52" t="s">
+        <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2394,8 +2394,8 @@
       <c r="B53" t="s">
         <v>217</v>
       </c>
-      <c r="C53" t="n">
-        <v>2.0</v>
+      <c r="C53" t="s">
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -2420,8 +2420,8 @@
       <c r="B54" t="s">
         <v>218</v>
       </c>
-      <c r="C54" t="n">
-        <v>2.0</v>
+      <c r="C54" t="s">
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -2446,8 +2446,8 @@
       <c r="B55" t="s">
         <v>219</v>
       </c>
-      <c r="C55" t="n">
-        <v>2.0</v>
+      <c r="C55" t="s">
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2472,8 +2472,8 @@
       <c r="B56" t="s">
         <v>220</v>
       </c>
-      <c r="C56" t="n">
-        <v>2.0</v>
+      <c r="C56" t="s">
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2498,8 +2498,8 @@
       <c r="B57" t="s">
         <v>221</v>
       </c>
-      <c r="C57" t="n">
-        <v>2.0</v>
+      <c r="C57" t="s">
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -2524,8 +2524,8 @@
       <c r="B58" t="s">
         <v>222</v>
       </c>
-      <c r="C58" t="n">
-        <v>2.0</v>
+      <c r="C58" t="s">
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -2550,8 +2550,8 @@
       <c r="B59" t="s">
         <v>223</v>
       </c>
-      <c r="C59" t="n">
-        <v>2.0</v>
+      <c r="C59" t="s">
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2576,8 +2576,8 @@
       <c r="B60" t="s">
         <v>224</v>
       </c>
-      <c r="C60" t="n">
-        <v>2.0</v>
+      <c r="C60" t="s">
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
@@ -2602,8 +2602,8 @@
       <c r="B61" t="s">
         <v>225</v>
       </c>
-      <c r="C61" t="n">
-        <v>2.0</v>
+      <c r="C61" t="s">
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -2628,8 +2628,8 @@
       <c r="B62" t="s">
         <v>226</v>
       </c>
-      <c r="C62" t="n">
-        <v>2.0</v>
+      <c r="C62" t="s">
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -2654,8 +2654,8 @@
       <c r="B63" t="s">
         <v>227</v>
       </c>
-      <c r="C63" t="n">
-        <v>2.0</v>
+      <c r="C63" t="s">
+        <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -2680,8 +2680,8 @@
       <c r="B64" t="s">
         <v>228</v>
       </c>
-      <c r="C64" t="n">
-        <v>2.0</v>
+      <c r="C64" t="s">
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
@@ -2706,8 +2706,8 @@
       <c r="B65" t="s">
         <v>229</v>
       </c>
-      <c r="C65" t="n">
-        <v>2.0</v>
+      <c r="C65" t="s">
+        <v>8</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -2732,8 +2732,8 @@
       <c r="B66" t="s">
         <v>230</v>
       </c>
-      <c r="C66" t="n">
-        <v>2.0</v>
+      <c r="C66" t="s">
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -2758,8 +2758,8 @@
       <c r="B67" t="s">
         <v>231</v>
       </c>
-      <c r="C67" t="n">
-        <v>2.0</v>
+      <c r="C67" t="s">
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -2784,8 +2784,8 @@
       <c r="B68" t="s">
         <v>232</v>
       </c>
-      <c r="C68" t="n">
-        <v>2.0</v>
+      <c r="C68" t="s">
+        <v>8</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -2810,8 +2810,8 @@
       <c r="B69" t="s">
         <v>233</v>
       </c>
-      <c r="C69" t="n">
-        <v>2.0</v>
+      <c r="C69" t="s">
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
@@ -2836,8 +2836,8 @@
       <c r="B70" t="s">
         <v>234</v>
       </c>
-      <c r="C70" t="n">
-        <v>2.0</v>
+      <c r="C70" t="s">
+        <v>8</v>
       </c>
       <c r="D70" t="s">
         <v>26</v>
@@ -2862,8 +2862,8 @@
       <c r="B71" t="s">
         <v>235</v>
       </c>
-      <c r="C71" t="n">
-        <v>2.0</v>
+      <c r="C71" t="s">
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -2888,8 +2888,8 @@
       <c r="B72" t="s">
         <v>236</v>
       </c>
-      <c r="C72" t="n">
-        <v>2.0</v>
+      <c r="C72" t="s">
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
@@ -2914,8 +2914,8 @@
       <c r="B73" t="s">
         <v>237</v>
       </c>
-      <c r="C73" t="n">
-        <v>2.0</v>
+      <c r="C73" t="s">
+        <v>8</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -2940,8 +2940,8 @@
       <c r="B74" t="s">
         <v>238</v>
       </c>
-      <c r="C74" t="n">
-        <v>2.0</v>
+      <c r="C74" t="s">
+        <v>8</v>
       </c>
       <c r="D74" t="s">
         <v>30</v>
@@ -2966,8 +2966,8 @@
       <c r="B75" t="s">
         <v>239</v>
       </c>
-      <c r="C75" t="n">
-        <v>2.0</v>
+      <c r="C75" t="s">
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
@@ -2992,8 +2992,8 @@
       <c r="B76" t="s">
         <v>240</v>
       </c>
-      <c r="C76" t="n">
-        <v>2.0</v>
+      <c r="C76" t="s">
+        <v>8</v>
       </c>
       <c r="D76" t="s">
         <v>32</v>
@@ -3018,8 +3018,8 @@
       <c r="B77" t="s">
         <v>241</v>
       </c>
-      <c r="C77" t="n">
-        <v>2.0</v>
+      <c r="C77" t="s">
+        <v>8</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
@@ -3044,8 +3044,8 @@
       <c r="B78" t="s">
         <v>242</v>
       </c>
-      <c r="C78" t="n">
-        <v>2.0</v>
+      <c r="C78" t="s">
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
@@ -3070,8 +3070,8 @@
       <c r="B79" t="s">
         <v>243</v>
       </c>
-      <c r="C79" t="n">
-        <v>2.0</v>
+      <c r="C79" t="s">
+        <v>8</v>
       </c>
       <c r="D79" t="s">
         <v>35</v>
@@ -3096,8 +3096,8 @@
       <c r="B80" t="s">
         <v>244</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.0</v>
+      <c r="C80" t="s">
+        <v>8</v>
       </c>
       <c r="D80" t="s">
         <v>36</v>
@@ -3122,8 +3122,8 @@
       <c r="B81" t="s">
         <v>245</v>
       </c>
-      <c r="C81" t="n">
-        <v>2.0</v>
+      <c r="C81" t="s">
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>37</v>
@@ -3148,8 +3148,8 @@
       <c r="B82" t="s">
         <v>246</v>
       </c>
-      <c r="C82" t="n">
-        <v>2.0</v>
+      <c r="C82" t="s">
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>38</v>
@@ -3174,8 +3174,8 @@
       <c r="B83" t="s">
         <v>247</v>
       </c>
-      <c r="C83" t="n">
-        <v>2.0</v>
+      <c r="C83" t="s">
+        <v>8</v>
       </c>
       <c r="D83" t="s">
         <v>39</v>
@@ -3200,8 +3200,8 @@
       <c r="B84" t="s">
         <v>248</v>
       </c>
-      <c r="C84" t="n">
-        <v>2.0</v>
+      <c r="C84" t="s">
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>40</v>
@@ -3226,8 +3226,8 @@
       <c r="B85" t="s">
         <v>249</v>
       </c>
-      <c r="C85" t="n">
-        <v>2.0</v>
+      <c r="C85" t="s">
+        <v>8</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
@@ -3252,8 +3252,8 @@
       <c r="B86" t="s">
         <v>250</v>
       </c>
-      <c r="C86" t="n">
-        <v>2.0</v>
+      <c r="C86" t="s">
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>42</v>
@@ -3278,8 +3278,8 @@
       <c r="B87" t="s">
         <v>251</v>
       </c>
-      <c r="C87" t="n">
-        <v>2.0</v>
+      <c r="C87" t="s">
+        <v>8</v>
       </c>
       <c r="D87" t="s">
         <v>43</v>
@@ -3304,8 +3304,8 @@
       <c r="B88" t="s">
         <v>252</v>
       </c>
-      <c r="C88" t="n">
-        <v>2.0</v>
+      <c r="C88" t="s">
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>44</v>
@@ -3330,8 +3330,8 @@
       <c r="B89" t="s">
         <v>253</v>
       </c>
-      <c r="C89" t="n">
-        <v>2.0</v>
+      <c r="C89" t="s">
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>45</v>
@@ -3356,8 +3356,8 @@
       <c r="B90" t="s">
         <v>254</v>
       </c>
-      <c r="C90" t="n">
-        <v>2.0</v>
+      <c r="C90" t="s">
+        <v>8</v>
       </c>
       <c r="D90" t="s">
         <v>46</v>
@@ -3382,8 +3382,8 @@
       <c r="B91" t="s">
         <v>255</v>
       </c>
-      <c r="C91" t="n">
-        <v>2.0</v>
+      <c r="C91" t="s">
+        <v>8</v>
       </c>
       <c r="D91" t="s">
         <v>47</v>
@@ -3408,8 +3408,8 @@
       <c r="B92" t="s">
         <v>256</v>
       </c>
-      <c r="C92" t="n">
-        <v>2.0</v>
+      <c r="C92" t="s">
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>48</v>
@@ -3434,8 +3434,8 @@
       <c r="B93" t="s">
         <v>257</v>
       </c>
-      <c r="C93" t="n">
-        <v>2.0</v>
+      <c r="C93" t="s">
+        <v>8</v>
       </c>
       <c r="D93" t="s">
         <v>49</v>
@@ -3460,8 +3460,8 @@
       <c r="B94" t="s">
         <v>258</v>
       </c>
-      <c r="C94" t="n">
-        <v>2.0</v>
+      <c r="C94" t="s">
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>50</v>
@@ -3486,8 +3486,8 @@
       <c r="B95" t="s">
         <v>259</v>
       </c>
-      <c r="C95" t="n">
-        <v>2.0</v>
+      <c r="C95" t="s">
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>51</v>
@@ -3512,8 +3512,8 @@
       <c r="B96" t="s">
         <v>260</v>
       </c>
-      <c r="C96" t="n">
-        <v>2.0</v>
+      <c r="C96" t="s">
+        <v>8</v>
       </c>
       <c r="D96" t="s">
         <v>52</v>
@@ -3538,8 +3538,8 @@
       <c r="B97" t="s">
         <v>261</v>
       </c>
-      <c r="C97" t="n">
-        <v>2.0</v>
+      <c r="C97" t="s">
+        <v>8</v>
       </c>
       <c r="D97" t="s">
         <v>53</v>
@@ -3564,8 +3564,8 @@
       <c r="B98" t="s">
         <v>262</v>
       </c>
-      <c r="C98" t="n">
-        <v>2.0</v>
+      <c r="C98" t="s">
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>54</v>
@@ -3590,8 +3590,8 @@
       <c r="B99" t="s">
         <v>263</v>
       </c>
-      <c r="C99" t="n">
-        <v>2.0</v>
+      <c r="C99" t="s">
+        <v>8</v>
       </c>
       <c r="D99" t="s">
         <v>55</v>
@@ -3616,8 +3616,8 @@
       <c r="B100" t="s">
         <v>264</v>
       </c>
-      <c r="C100" t="n">
-        <v>2.0</v>
+      <c r="C100" t="s">
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>56</v>
@@ -3642,8 +3642,8 @@
       <c r="B101" t="s">
         <v>265</v>
       </c>
-      <c r="C101" t="n">
-        <v>3.0</v>
+      <c r="C101" t="s">
+        <v>9</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -3668,8 +3668,8 @@
       <c r="B102" t="s">
         <v>266</v>
       </c>
-      <c r="C102" t="n">
-        <v>3.0</v>
+      <c r="C102" t="s">
+        <v>9</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3694,8 +3694,8 @@
       <c r="B103" t="s">
         <v>267</v>
       </c>
-      <c r="C103" t="n">
-        <v>3.0</v>
+      <c r="C103" t="s">
+        <v>9</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -3720,8 +3720,8 @@
       <c r="B104" t="s">
         <v>268</v>
       </c>
-      <c r="C104" t="n">
-        <v>3.0</v>
+      <c r="C104" t="s">
+        <v>9</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -3746,8 +3746,8 @@
       <c r="B105" t="s">
         <v>269</v>
       </c>
-      <c r="C105" t="n">
-        <v>3.0</v>
+      <c r="C105" t="s">
+        <v>9</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -3772,8 +3772,8 @@
       <c r="B106" t="s">
         <v>270</v>
       </c>
-      <c r="C106" t="n">
-        <v>3.0</v>
+      <c r="C106" t="s">
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -3798,8 +3798,8 @@
       <c r="B107" t="s">
         <v>271</v>
       </c>
-      <c r="C107" t="n">
-        <v>3.0</v>
+      <c r="C107" t="s">
+        <v>9</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -3824,8 +3824,8 @@
       <c r="B108" t="s">
         <v>272</v>
       </c>
-      <c r="C108" t="n">
-        <v>3.0</v>
+      <c r="C108" t="s">
+        <v>9</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -3850,8 +3850,8 @@
       <c r="B109" t="s">
         <v>273</v>
       </c>
-      <c r="C109" t="n">
-        <v>3.0</v>
+      <c r="C109" t="s">
+        <v>9</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -3876,8 +3876,8 @@
       <c r="B110" t="s">
         <v>274</v>
       </c>
-      <c r="C110" t="n">
-        <v>3.0</v>
+      <c r="C110" t="s">
+        <v>9</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
@@ -3902,8 +3902,8 @@
       <c r="B111" t="s">
         <v>275</v>
       </c>
-      <c r="C111" t="n">
-        <v>3.0</v>
+      <c r="C111" t="s">
+        <v>9</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -3928,8 +3928,8 @@
       <c r="B112" t="s">
         <v>276</v>
       </c>
-      <c r="C112" t="n">
-        <v>3.0</v>
+      <c r="C112" t="s">
+        <v>9</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -3954,8 +3954,8 @@
       <c r="B113" t="s">
         <v>277</v>
       </c>
-      <c r="C113" t="n">
-        <v>3.0</v>
+      <c r="C113" t="s">
+        <v>9</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -3980,8 +3980,8 @@
       <c r="B114" t="s">
         <v>278</v>
       </c>
-      <c r="C114" t="n">
-        <v>3.0</v>
+      <c r="C114" t="s">
+        <v>9</v>
       </c>
       <c r="D114" t="s">
         <v>20</v>
@@ -4006,8 +4006,8 @@
       <c r="B115" t="s">
         <v>279</v>
       </c>
-      <c r="C115" t="n">
-        <v>3.0</v>
+      <c r="C115" t="s">
+        <v>9</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
@@ -4032,8 +4032,8 @@
       <c r="B116" t="s">
         <v>280</v>
       </c>
-      <c r="C116" t="n">
-        <v>3.0</v>
+      <c r="C116" t="s">
+        <v>9</v>
       </c>
       <c r="D116" t="s">
         <v>22</v>
@@ -4058,8 +4058,8 @@
       <c r="B117" t="s">
         <v>281</v>
       </c>
-      <c r="C117" t="n">
-        <v>3.0</v>
+      <c r="C117" t="s">
+        <v>9</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
@@ -4084,8 +4084,8 @@
       <c r="B118" t="s">
         <v>282</v>
       </c>
-      <c r="C118" t="n">
-        <v>3.0</v>
+      <c r="C118" t="s">
+        <v>9</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -4110,8 +4110,8 @@
       <c r="B119" t="s">
         <v>283</v>
       </c>
-      <c r="C119" t="n">
-        <v>3.0</v>
+      <c r="C119" t="s">
+        <v>9</v>
       </c>
       <c r="D119" t="s">
         <v>25</v>
@@ -4136,8 +4136,8 @@
       <c r="B120" t="s">
         <v>284</v>
       </c>
-      <c r="C120" t="n">
-        <v>3.0</v>
+      <c r="C120" t="s">
+        <v>9</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -4162,8 +4162,8 @@
       <c r="B121" t="s">
         <v>285</v>
       </c>
-      <c r="C121" t="n">
-        <v>3.0</v>
+      <c r="C121" t="s">
+        <v>9</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
@@ -4188,8 +4188,8 @@
       <c r="B122" t="s">
         <v>286</v>
       </c>
-      <c r="C122" t="n">
-        <v>3.0</v>
+      <c r="C122" t="s">
+        <v>9</v>
       </c>
       <c r="D122" t="s">
         <v>28</v>
@@ -4214,8 +4214,8 @@
       <c r="B123" t="s">
         <v>287</v>
       </c>
-      <c r="C123" t="n">
-        <v>3.0</v>
+      <c r="C123" t="s">
+        <v>9</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
@@ -4240,8 +4240,8 @@
       <c r="B124" t="s">
         <v>288</v>
       </c>
-      <c r="C124" t="n">
-        <v>3.0</v>
+      <c r="C124" t="s">
+        <v>9</v>
       </c>
       <c r="D124" t="s">
         <v>30</v>
@@ -4266,8 +4266,8 @@
       <c r="B125" t="s">
         <v>289</v>
       </c>
-      <c r="C125" t="n">
-        <v>3.0</v>
+      <c r="C125" t="s">
+        <v>9</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -4292,8 +4292,8 @@
       <c r="B126" t="s">
         <v>290</v>
       </c>
-      <c r="C126" t="n">
-        <v>3.0</v>
+      <c r="C126" t="s">
+        <v>9</v>
       </c>
       <c r="D126" t="s">
         <v>32</v>
@@ -4318,8 +4318,8 @@
       <c r="B127" t="s">
         <v>291</v>
       </c>
-      <c r="C127" t="n">
-        <v>3.0</v>
+      <c r="C127" t="s">
+        <v>9</v>
       </c>
       <c r="D127" t="s">
         <v>33</v>
@@ -4344,8 +4344,8 @@
       <c r="B128" t="s">
         <v>292</v>
       </c>
-      <c r="C128" t="n">
-        <v>3.0</v>
+      <c r="C128" t="s">
+        <v>9</v>
       </c>
       <c r="D128" t="s">
         <v>34</v>
@@ -4370,8 +4370,8 @@
       <c r="B129" t="s">
         <v>293</v>
       </c>
-      <c r="C129" t="n">
-        <v>3.0</v>
+      <c r="C129" t="s">
+        <v>9</v>
       </c>
       <c r="D129" t="s">
         <v>35</v>
@@ -4396,8 +4396,8 @@
       <c r="B130" t="s">
         <v>294</v>
       </c>
-      <c r="C130" t="n">
-        <v>3.0</v>
+      <c r="C130" t="s">
+        <v>9</v>
       </c>
       <c r="D130" t="s">
         <v>36</v>
@@ -4422,8 +4422,8 @@
       <c r="B131" t="s">
         <v>295</v>
       </c>
-      <c r="C131" t="n">
-        <v>3.0</v>
+      <c r="C131" t="s">
+        <v>9</v>
       </c>
       <c r="D131" t="s">
         <v>37</v>
@@ -4448,8 +4448,8 @@
       <c r="B132" t="s">
         <v>296</v>
       </c>
-      <c r="C132" t="n">
-        <v>3.0</v>
+      <c r="C132" t="s">
+        <v>9</v>
       </c>
       <c r="D132" t="s">
         <v>38</v>
@@ -4474,8 +4474,8 @@
       <c r="B133" t="s">
         <v>297</v>
       </c>
-      <c r="C133" t="n">
-        <v>3.0</v>
+      <c r="C133" t="s">
+        <v>9</v>
       </c>
       <c r="D133" t="s">
         <v>39</v>
@@ -4500,8 +4500,8 @@
       <c r="B134" t="s">
         <v>298</v>
       </c>
-      <c r="C134" t="n">
-        <v>3.0</v>
+      <c r="C134" t="s">
+        <v>9</v>
       </c>
       <c r="D134" t="s">
         <v>40</v>
@@ -4526,8 +4526,8 @@
       <c r="B135" t="s">
         <v>299</v>
       </c>
-      <c r="C135" t="n">
-        <v>3.0</v>
+      <c r="C135" t="s">
+        <v>9</v>
       </c>
       <c r="D135" t="s">
         <v>41</v>
@@ -4552,8 +4552,8 @@
       <c r="B136" t="s">
         <v>300</v>
       </c>
-      <c r="C136" t="n">
-        <v>3.0</v>
+      <c r="C136" t="s">
+        <v>9</v>
       </c>
       <c r="D136" t="s">
         <v>42</v>
@@ -4578,8 +4578,8 @@
       <c r="B137" t="s">
         <v>301</v>
       </c>
-      <c r="C137" t="n">
-        <v>3.0</v>
+      <c r="C137" t="s">
+        <v>9</v>
       </c>
       <c r="D137" t="s">
         <v>43</v>
@@ -4604,8 +4604,8 @@
       <c r="B138" t="s">
         <v>302</v>
       </c>
-      <c r="C138" t="n">
-        <v>3.0</v>
+      <c r="C138" t="s">
+        <v>9</v>
       </c>
       <c r="D138" t="s">
         <v>44</v>
@@ -4630,8 +4630,8 @@
       <c r="B139" t="s">
         <v>303</v>
       </c>
-      <c r="C139" t="n">
-        <v>3.0</v>
+      <c r="C139" t="s">
+        <v>9</v>
       </c>
       <c r="D139" t="s">
         <v>45</v>
@@ -4656,8 +4656,8 @@
       <c r="B140" t="s">
         <v>304</v>
       </c>
-      <c r="C140" t="n">
-        <v>3.0</v>
+      <c r="C140" t="s">
+        <v>9</v>
       </c>
       <c r="D140" t="s">
         <v>46</v>
@@ -4682,8 +4682,8 @@
       <c r="B141" t="s">
         <v>305</v>
       </c>
-      <c r="C141" t="n">
-        <v>3.0</v>
+      <c r="C141" t="s">
+        <v>9</v>
       </c>
       <c r="D141" t="s">
         <v>47</v>
@@ -4708,8 +4708,8 @@
       <c r="B142" t="s">
         <v>306</v>
       </c>
-      <c r="C142" t="n">
-        <v>3.0</v>
+      <c r="C142" t="s">
+        <v>9</v>
       </c>
       <c r="D142" t="s">
         <v>48</v>
@@ -4734,8 +4734,8 @@
       <c r="B143" t="s">
         <v>307</v>
       </c>
-      <c r="C143" t="n">
-        <v>3.0</v>
+      <c r="C143" t="s">
+        <v>9</v>
       </c>
       <c r="D143" t="s">
         <v>49</v>
@@ -4760,8 +4760,8 @@
       <c r="B144" t="s">
         <v>308</v>
       </c>
-      <c r="C144" t="n">
-        <v>3.0</v>
+      <c r="C144" t="s">
+        <v>9</v>
       </c>
       <c r="D144" t="s">
         <v>50</v>
@@ -4786,8 +4786,8 @@
       <c r="B145" t="s">
         <v>309</v>
       </c>
-      <c r="C145" t="n">
-        <v>3.0</v>
+      <c r="C145" t="s">
+        <v>9</v>
       </c>
       <c r="D145" t="s">
         <v>51</v>
@@ -4812,8 +4812,8 @@
       <c r="B146" t="s">
         <v>310</v>
       </c>
-      <c r="C146" t="n">
-        <v>3.0</v>
+      <c r="C146" t="s">
+        <v>9</v>
       </c>
       <c r="D146" t="s">
         <v>52</v>
@@ -4838,8 +4838,8 @@
       <c r="B147" t="s">
         <v>311</v>
       </c>
-      <c r="C147" t="n">
-        <v>3.0</v>
+      <c r="C147" t="s">
+        <v>9</v>
       </c>
       <c r="D147" t="s">
         <v>53</v>
@@ -4864,8 +4864,8 @@
       <c r="B148" t="s">
         <v>312</v>
       </c>
-      <c r="C148" t="n">
-        <v>3.0</v>
+      <c r="C148" t="s">
+        <v>9</v>
       </c>
       <c r="D148" t="s">
         <v>54</v>
@@ -4890,8 +4890,8 @@
       <c r="B149" t="s">
         <v>313</v>
       </c>
-      <c r="C149" t="n">
-        <v>3.0</v>
+      <c r="C149" t="s">
+        <v>9</v>
       </c>
       <c r="D149" t="s">
         <v>55</v>
@@ -4916,8 +4916,8 @@
       <c r="B150" t="s">
         <v>314</v>
       </c>
-      <c r="C150" t="n">
-        <v>3.0</v>
+      <c r="C150" t="s">
+        <v>9</v>
       </c>
       <c r="D150" t="s">
         <v>56</v>
@@ -4942,8 +4942,8 @@
       <c r="B151" t="s">
         <v>315</v>
       </c>
-      <c r="C151" t="n">
-        <v>4.0</v>
+      <c r="C151" t="s">
+        <v>10</v>
       </c>
       <c r="D151" t="s">
         <v>56</v>
@@ -4968,8 +4968,8 @@
       <c r="B152" t="s">
         <v>316</v>
       </c>
-      <c r="C152" t="n">
-        <v>4.0</v>
+      <c r="C152" t="s">
+        <v>10</v>
       </c>
       <c r="D152" t="s">
         <v>55</v>
@@ -4994,8 +4994,8 @@
       <c r="B153" t="s">
         <v>317</v>
       </c>
-      <c r="C153" t="n">
-        <v>4.0</v>
+      <c r="C153" t="s">
+        <v>10</v>
       </c>
       <c r="D153" t="s">
         <v>53</v>
@@ -5020,8 +5020,8 @@
       <c r="B154" t="s">
         <v>318</v>
       </c>
-      <c r="C154" t="n">
-        <v>4.0</v>
+      <c r="C154" t="s">
+        <v>10</v>
       </c>
       <c r="D154" t="s">
         <v>52</v>
@@ -5046,8 +5046,8 @@
       <c r="B155" t="s">
         <v>319</v>
       </c>
-      <c r="C155" t="n">
-        <v>4.0</v>
+      <c r="C155" t="s">
+        <v>10</v>
       </c>
       <c r="D155" t="s">
         <v>51</v>
@@ -5072,8 +5072,8 @@
       <c r="B156" t="s">
         <v>320</v>
       </c>
-      <c r="C156" t="n">
-        <v>4.0</v>
+      <c r="C156" t="s">
+        <v>10</v>
       </c>
       <c r="D156" t="s">
         <v>47</v>
@@ -5098,8 +5098,8 @@
       <c r="B157" t="s">
         <v>321</v>
       </c>
-      <c r="C157" t="n">
-        <v>4.0</v>
+      <c r="C157" t="s">
+        <v>10</v>
       </c>
       <c r="D157" t="s">
         <v>41</v>
@@ -5124,8 +5124,8 @@
       <c r="B158" t="s">
         <v>322</v>
       </c>
-      <c r="C158" t="n">
-        <v>4.0</v>
+      <c r="C158" t="s">
+        <v>10</v>
       </c>
       <c r="D158" t="s">
         <v>40</v>
@@ -5150,8 +5150,8 @@
       <c r="B159" t="s">
         <v>323</v>
       </c>
-      <c r="C159" t="n">
-        <v>4.0</v>
+      <c r="C159" t="s">
+        <v>10</v>
       </c>
       <c r="D159" t="s">
         <v>38</v>
@@ -5176,8 +5176,8 @@
       <c r="B160" t="s">
         <v>324</v>
       </c>
-      <c r="C160" t="n">
-        <v>4.0</v>
+      <c r="C160" t="s">
+        <v>10</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
